--- a/planilha fechamento.xlsx
+++ b/planilha fechamento.xlsx
@@ -270,13 +270,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.5703125" defaultRowHeight="12.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <cols>
     <col width="20.28515625" customWidth="1" min="1" max="1"/>
     <col width="14.140625" customWidth="1" min="3" max="3"/>
@@ -401,6 +401,581 @@
         </is>
       </c>
       <c r="E4" t="inlineStr">
+        <is>
+          <t>pendente</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Luigi Barros</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>349.87</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>179.432.680-40</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>29/06/2024</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>em dia</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>16/03/2025</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>cartão</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Stella da Luz</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>449.42</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>821.074.653-71</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16/07/2024</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>em dia</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>02/07/2025</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>boleto</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Elisa da Cunha</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>655.34</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>281.597.640-49</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>07/05/2024</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>em dia</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>02/06/2025</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>boleto</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Rodrigo Fernandes</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>615.39</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>358.170.962-77</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13/07/2024</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>em dia</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>boleto</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Dra. Alícia Monteiro</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>726.4299999999999</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>098.132.475-41</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>26/06/2024</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>em dia</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>03/04/2025</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>boleto</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Eduardo Farias</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>370.38</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>203.546.178-26</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>23/06/2024</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>pendente</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Dr. Gustavo Costa</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>949.45</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>916.253.408-42</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>07/12/2024</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>em dia</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>16/06/2025</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>cartão</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Sarah Fogaça</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>661.26</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>197.382.460-40</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>27/06/2024</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>pendente</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Thomas Costa</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>375.81</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>732.481.056-07</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>07/06/2024</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>pendente</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>João Felipe Aragão</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>666.9299999999999</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>839.140.256-89</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>07/08/2024</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>pendente</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Dra. Nina Caldeira</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>618.96</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>903.158.764-84</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>07/12/2024</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>em dia</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>26/12/2025</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>cartão</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Pietra Correia</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>737.74</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>392.104.568-15</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>20/06/2024</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>em dia</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>10/08/2025</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>cartão</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Enzo Gabriel Lima</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>791.46</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>185.603.294-98</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>07/09/2024</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>em dia</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>20/03/2025</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>boleto</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Bianca Azevedo</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>852.28</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>143.789.560-39</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>24/06/2024</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>pendente</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fernanda Martins</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>523.92</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>852.436.970-10</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>07/09/2024</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>pendente</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Eduardo Novaes</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>453.74</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>382.567.490-83</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>07/05/2024</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>pendente</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Luiz Miguel Rodrigues</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>278.83</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>903.468.752-00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>21/06/2024</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>em dia</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>cartão</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Alexandre Ramos</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>495.02</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>370.549.268-38</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>07/06/2024</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>pendente</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Danilo Peixoto</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>527.24</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>379.681.520-03</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>24/06/2024</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>pendente</t>
         </is>

--- a/planilha fechamento.xlsx
+++ b/planilha fechamento.xlsx
@@ -270,7 +270,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:G6"/>
@@ -978,6 +978,76 @@
       <c r="E23" t="inlineStr">
         <is>
           <t>pendente</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Maria Eduarda Barbosa</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>164.61</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>068.719.435-01</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>22/06/2024</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>em dia</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>18/04/2025</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>boleto</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Luiza Teixeira</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>236.86</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>394.275.610-25</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>13/07/2024</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>em dia</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>15/01/2025</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>cartão</t>
         </is>
       </c>
     </row>
